--- a/automation-tool-files/PACT_IP_AddressingChart.xlsx
+++ b/automation-tool-files/PACT_IP_AddressingChart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ict435-capstone\network-automation-tool-capstone\automation-tool-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{701A6DB9-053E-4498-9A7F-ED97D14472E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1978FA-E384-42C7-B717-B3D414457497}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20385" yWindow="4755" windowWidth="18150" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3060" yWindow="3090" windowWidth="17985" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,23 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>Gateway</t>
   </si>
   <si>
-    <t>PACT_Server</t>
-  </si>
-  <si>
-    <t>PACT_Senior_Project</t>
-  </si>
-  <si>
-    <t>PACT_WIN_10</t>
-  </si>
-  <si>
-    <t>PACT_Ubuntu</t>
-  </si>
-  <si>
     <t>Accounting_PC</t>
   </si>
   <si>
@@ -90,9 +78,6 @@
     <t>172.18.10.23 /16</t>
   </si>
   <si>
-    <t>ACCOUNTING.PACTNMSU.com</t>
-  </si>
-  <si>
     <t>172.18.10.24 /16</t>
   </si>
   <si>
@@ -102,28 +87,52 @@
     <t>Vsphere Server Name</t>
   </si>
   <si>
-    <t>PACTNMSU-Server.PACTNMSU.com</t>
-  </si>
-  <si>
-    <t>PACT_WIN_10.PACTNMSU.com</t>
-  </si>
-  <si>
-    <t>PACTUbuntu.PACTNMSU.com</t>
-  </si>
-  <si>
-    <t>PACT_Senior_Project.PACTNMSU.com</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ethernet0        172.18.10.0 /16 Network </t>
   </si>
   <si>
-    <t>Vbox Host-Only IP</t>
-  </si>
-  <si>
-    <t>***INCOMPLETE***    Vbox Host-Only       192.168.56.0 /24 Network    ***INCOMPLETE***</t>
-  </si>
-  <si>
-    <t>192.168.56.1</t>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>FreeBSD</t>
+  </si>
+  <si>
+    <t>Ubuntu 20.04.5 LTS</t>
+  </si>
+  <si>
+    <t>Windows Server 2019</t>
+  </si>
+  <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>PATC_Server</t>
+  </si>
+  <si>
+    <t>PATC_Senior_Project</t>
+  </si>
+  <si>
+    <t>PATC_WIN_10</t>
+  </si>
+  <si>
+    <t>PATC_Ubuntu</t>
+  </si>
+  <si>
+    <t>ACCOUNTING.PATCNMSU.com</t>
+  </si>
+  <si>
+    <t>PATCUbuntu.PATCNMSU.com</t>
+  </si>
+  <si>
+    <t>PATC_WIN_10.PATCNMSU.com</t>
+  </si>
+  <si>
+    <t>PATC_Senior_Project.PATCNMSU.com</t>
+  </si>
+  <si>
+    <t>PATCNMSU-Server.PATCNMSU.com</t>
+  </si>
+  <si>
+    <t>PATCNMSU.com</t>
   </si>
 </sst>
 </file>
@@ -168,7 +177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +199,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
@@ -265,9 +268,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -550,28 +550,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="C16" sqref="A11:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="2" max="2" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
@@ -580,295 +581,203 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
-    </row>
-    <row r="2" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="12" t="s">
+        <v>7</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A9:H9"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
